--- a/excel/student.xlsx
+++ b/excel/student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件开发综合实训\github\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FAD92B-B9A1-4C90-8AEA-F76C600CCC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A7434-EB3F-4983-A4A5-D200B9356739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8688" yWindow="3120" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>sID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sIDcardNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sEnrollYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sPhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>livingState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sSex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,47 +417,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20190001</v>
-      </c>
-      <c r="B2">
-        <v>20190001</v>
+        <v>20193001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2">
+        <v>111</v>
+      </c>
+      <c r="H2">
+        <v>222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>414</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20190002</v>
-      </c>
-      <c r="B3">
-        <v>20190002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20190003</v>
-      </c>
-      <c r="B4">
-        <v>20190003</v>
+        <v>20193002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>654321</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3">
+        <v>654321</v>
+      </c>
+      <c r="G3">
+        <v>222</v>
+      </c>
+      <c r="H3">
+        <v>333</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>123</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel/student.xlsx
+++ b/excel/student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件开发综合实训\github\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A7434-EB3F-4983-A4A5-D200B9356739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEC91D-194A-42B1-81CB-8350F6A2DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8688" yWindow="3120" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4728" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,13 +420,14 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -478,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="E2">
         <v>2019</v>
@@ -487,10 +488,10 @@
         <v>123456</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>33333</v>
       </c>
       <c r="H2">
-        <v>222</v>
+        <v>222222</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -525,10 +526,10 @@
         <v>654321</v>
       </c>
       <c r="G3">
-        <v>222</v>
+        <v>23333</v>
       </c>
       <c r="H3">
-        <v>333</v>
+        <v>333333</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>

--- a/excel/student.xlsx
+++ b/excel/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件开发综合实训\github\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEC91D-194A-42B1-81CB-8350F6A2DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E724F-F1AA-4861-9F0F-1260B32BD69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4728" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>sID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,26 @@
   </si>
   <si>
     <t>sSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckInDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckOutDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,8 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,20 +438,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +499,17 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20193001</v>
       </c>
@@ -505,8 +546,17 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
+      <c r="M2" s="1">
+        <v>43709</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45108</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20193002</v>
       </c>
@@ -542,6 +592,15 @@
       </c>
       <c r="L3" t="s">
         <v>13</v>
+      </c>
+      <c r="M3" s="1">
+        <v>44075</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
